--- a/Result/check1/2025-04-09.xlsx
+++ b/Result/check1/2025-04-09.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV6"/>
+  <dimension ref="A1:AV5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -683,17 +683,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>8410</t>
+          <t>6148</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>10.16</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>164.0</t>
+          <t>73655.0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -703,17 +703,17 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>21.91</t>
+          <t>-0.93</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>5.88</t>
+          <t>3.46</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>13.83</t>
+          <t>89.04</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>69.0</t>
+          <t>49.9</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -733,32 +733,32 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>-9.52</t>
+          <t>10.41</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>164</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>959</t>
+          <t>82717</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>3.84</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-14.27</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -768,37 +768,37 @@
       </c>
       <c r="S2" t="inlineStr">
         <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
           <t>-0.06</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>-0.30</t>
-        </is>
-      </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>-2.37</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>-1.83</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>-7.0</t>
+          <t>49.0</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>28.0</t>
+          <t>55.0</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -823,22 +823,22 @@
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>55</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>2146.0</t>
+          <t>5372269.0</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>森田</t>
+          <t>驊宏資</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業</t>
+          <t>資訊服務業</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
@@ -848,57 +848,57 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>3.97</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>8.42</t>
+          <t>4.79</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>8.36</t>
+          <t>36.17</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>38.57%</t>
+          <t>23.65%</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>16.77%</t>
+          <t>6.98%</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>30.82</t>
+          <t>24.04</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>2305</t>
+          <t>2596</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>熱轉印膜99.19%、其他0.81% (2024年)</t>
+          <t>技術服務53.47%、商品銷售45.45%、其他營業收入1.09% (2023年)</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>森田-電腦及週邊設備業-上櫃</t>
+          <t>驊宏資-資訊服務業-上櫃</t>
         </is>
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業平</t>
+          <t>資訊服務業右上</t>
         </is>
       </c>
       <c r="AS2" t="inlineStr">
         <is>
-          <t>50.72</t>
+          <t>13.01</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr">
@@ -913,7 +913,7 @@
       </c>
       <c r="AV2" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 機殼</t>
+          <t>** 軟體服務 - 系統整合服務** 雲端運算 - 系統整合** 大數據 - 系統整合</t>
         </is>
       </c>
     </row>
@@ -925,17 +925,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>6148</t>
+          <t>5876</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>-0.8</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>73655.0</t>
+          <t>22064.689</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -945,17 +945,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-0.93</t>
+          <t>-0.39</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>3.46</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>96.26</t>
+          <t>33.43</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -965,7 +965,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>49.9</t>
+          <t>45.0</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -975,72 +975,72 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>8.94</t>
+          <t>5.86</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>69</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>11063</t>
+          <t>22443</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>3.84</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>-0.29</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>2.98</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>49.0</t>
+          <t>22.0</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>55.0</t>
+          <t>25.0</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -1065,82 +1065,82 @@
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>25</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>5372269.0</t>
+          <t>-112627159.0</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>驊宏資</t>
+          <t>上海商銀</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>資訊服務業</t>
+          <t>金融保險</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>3.77</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>4.79</t>
+          <t>2.54</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>35.58</t>
+          <t>17.19</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>23.65%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>6.98%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>24.23</t>
+          <t>12.33</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>2554</t>
+          <t>232385</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>技術服務53.47%、商品銷售45.45%、其他營業收入1.09% (2023年)</t>
+          <t>利息淨收益75.30%、手續費淨收益13.21%、透過其他綜合損益按公允價值8.16%、兌換損益7.24%、其他利息以外淨收益0.70%、權益法投資收益-關聯和合營公0.63%、除列按攤銷後成本衡量金融資0.15% (2024年)</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>驊宏資-資訊服務業-上櫃</t>
+          <t>上海商銀-金融保險-上市</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>資訊服務業右上</t>
+          <t>金融保險右上</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
         <is>
-          <t>13.01</t>
+          <t>40.81</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="AV3" t="inlineStr">
         <is>
-          <t>** 軟體服務 - 系統整合服務** 雲端運算 - 系統整合** 大數據 - 系統整合</t>
+          <t>** 金融 - 金控業/銀行業/保險業</t>
         </is>
       </c>
     </row>
@@ -1167,17 +1167,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>5876</t>
+          <t>3297</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-0.8</t>
+          <t>6.68</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>22064.689</t>
+          <t>13143.0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1187,17 +1187,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-0.39</t>
+          <t>13.17</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>9.74</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>33.43</t>
+          <t>100.00</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>45.0</t>
+          <t>25.7</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1217,72 +1217,72 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>17.23</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>23</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>18760</t>
+          <t>5860</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>6.15</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>-0.29</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>22.0</t>
+          <t>273.0</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>25.0</t>
+          <t>93.0</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1297,92 +1297,92 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
+          <t>2025-04-02</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>2025-04-12</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>376324.0</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>杭特</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>光電業</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AC4" t="inlineStr">
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>-112627159.0</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>上海商銀</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>金融保險</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>3.84</t>
-        </is>
-      </c>
-      <c r="AJ4" t="inlineStr">
-        <is>
-          <t>2.54</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>16.85</t>
-        </is>
-      </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>33.49%</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-25.64%</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>12.44</t>
+          <t>61.25</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>227766</t>
+          <t>1119</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>利息淨收益75.30%、手續費淨收益13.21%、透過其他綜合損益按公允價值8.16%、兌換損益7.24%、其他利息以外淨收益0.70%、權益法投資收益-關聯和合營公0.63%、除列按攤銷後成本衡量金融資0.15% (2024年)</t>
+          <t>網路攝影機72.39%、其他27.61% (2024年)</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>上海商銀-金融保險-上市</t>
+          <t>杭特-光電業-上櫃</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>金融保險右上</t>
+          <t>光電業右上</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
         <is>
-          <t>40.81</t>
+          <t>15.63</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr">
@@ -1397,7 +1397,7 @@
       </c>
       <c r="AV4" t="inlineStr">
         <is>
-          <t>** 金融 - 金控業/銀行業/保險業</t>
+          <t>** 電腦及週邊設備 - 安全監控系統** 人工智慧 - 領域解決方案、智慧設備</t>
         </is>
       </c>
     </row>
@@ -1409,17 +1409,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>3297</t>
+          <t>1240</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>6.68</t>
+          <t>9.89</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>13143.0</t>
+          <t>1348.0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1429,27 +1429,27 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>13.17</t>
+          <t>13.27</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>9.74</t>
+          <t>3.56</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>34.35</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>25.7</t>
+          <t>62.3</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1459,32 +1459,32 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>9.03</t>
+          <t>-11.45</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>14</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>1690</t>
+          <t>782</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1494,22 +1494,22 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
@@ -1519,12 +1519,12 @@
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>273.0</t>
+          <t>151.0</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>93.0</t>
+          <t>76.0</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1534,12 +1534,12 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
@@ -1549,22 +1549,22 @@
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>76</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>376324.0</t>
+          <t>83956.0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>杭特</t>
+          <t>茂生農經</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>農業科技業</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
@@ -1574,57 +1574,57 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6.08</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>17.51</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12.88</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>33.49%</t>
+          <t>13.83%</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>-25.64%</t>
+          <t>5.37%</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>60.37</t>
+          <t>45.67</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>1018</t>
+          <t>2311</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>網路攝影機72.39%、其他27.61% (2024年)</t>
+          <t>禽畜飼料56.08%、蛋品22.89%、養殖13.65%、大宗原物料買賣7.11%、其他0.28% (2023年)</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>杭特-光電業-上櫃</t>
+          <t>茂生農經-農業科技業-上櫃</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>光電業右上</t>
+          <t>農業科技業右上</t>
         </is>
       </c>
       <c r="AS5" t="inlineStr">
         <is>
-          <t>15.63</t>
+          <t>34.98</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr">
@@ -1638,248 +1638,6 @@
         </is>
       </c>
       <c r="AV5" t="inlineStr">
-        <is>
-          <t>** 電腦及週邊設備 - 安全監控系統** 人工智慧 - 領域解決方案、智慧設備</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2025-04-09</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>1240</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>9.89</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1348.0</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>13.27</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>3.56</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>34.35</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>1.78</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>62.3</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>-11.05</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>3924</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>1.78</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0.1</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>-22.10</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>1.31</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>95.0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>151.0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>76.0</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA6" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>2025-04-09</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>2025-04-11</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>76</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>83956.0</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>茂生農經</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>農業科技業</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>上櫃</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>6.06</t>
-        </is>
-      </c>
-      <c r="AJ6" t="inlineStr">
-        <is>
-          <t>17.51</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>12.93</t>
-        </is>
-      </c>
-      <c r="AL6" t="inlineStr">
-        <is>
-          <t>13.83%</t>
-        </is>
-      </c>
-      <c r="AM6" t="inlineStr">
-        <is>
-          <t>5.37%</t>
-        </is>
-      </c>
-      <c r="AN6" t="inlineStr">
-        <is>
-          <t>46.51</t>
-        </is>
-      </c>
-      <c r="AO6" t="inlineStr">
-        <is>
-          <t>2319</t>
-        </is>
-      </c>
-      <c r="AP6" t="inlineStr">
-        <is>
-          <t>禽畜飼料56.08%、蛋品22.89%、養殖13.65%、大宗原物料買賣7.11%、其他0.28% (2023年)</t>
-        </is>
-      </c>
-      <c r="AQ6" t="inlineStr">
-        <is>
-          <t>茂生農經-農業科技業-上櫃</t>
-        </is>
-      </c>
-      <c r="AR6" t="inlineStr">
-        <is>
-          <t>農業科技業右上</t>
-        </is>
-      </c>
-      <c r="AS6" t="inlineStr">
-        <is>
-          <t>34.98</t>
-        </is>
-      </c>
-      <c r="AT6" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU6" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="AV6" t="inlineStr">
         <is>
           <t>** 其他 - 農業科技業</t>
         </is>

--- a/Result/check1/2025-04-09.xlsx
+++ b/Result/check1/2025-04-09.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV5"/>
+  <dimension ref="A1:AV4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -733,17 +733,17 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>10.41</t>
+          <t>7.59</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>197</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>82717</t>
+          <t>39989</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -753,12 +753,12 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>-9.26</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>2.48</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>36.17</t>
+          <t>35.06</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>24.04</t>
+          <t>24.46</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>2596</t>
+          <t>2517</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -975,17 +975,17 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>5.86</t>
+          <t>5.26</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>45</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>22443</t>
+          <t>11447</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>3.77</t>
+          <t>3.79</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>17.19</t>
+          <t>17.09</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1120,7 +1120,7 @@
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>232385</t>
+          <t>230926</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1217,17 +1217,17 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>17.23</t>
+          <t>24.74</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>37</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>5860</t>
+          <t>7745</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -1237,12 +1237,12 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>6.15</t>
+          <t>6.22</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1272,7 +1272,7 @@
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
@@ -1302,7 +1302,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2025-04-12</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>61.25</t>
+          <t>63.7</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>1119</t>
+          <t>1231</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1398,248 +1398,6 @@
       <c r="AV4" t="inlineStr">
         <is>
           <t>** 電腦及週邊設備 - 安全監控系統** 人工智慧 - 領域解決方案、智慧設備</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2025-04-09</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>1240</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>9.89</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1348.0</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>13.27</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>3.56</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>34.35</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>1.78</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>62.3</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>-11.45</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>782</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>1.78</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>-0.05</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>1.86</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>1.31</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>95.0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>151.0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>76.0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>2025-04-09</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>2025-04-11</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>76</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>83956.0</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>茂生農經</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>農業科技業</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>上櫃</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>6.08</t>
-        </is>
-      </c>
-      <c r="AJ5" t="inlineStr">
-        <is>
-          <t>17.51</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>12.88</t>
-        </is>
-      </c>
-      <c r="AL5" t="inlineStr">
-        <is>
-          <t>13.83%</t>
-        </is>
-      </c>
-      <c r="AM5" t="inlineStr">
-        <is>
-          <t>5.37%</t>
-        </is>
-      </c>
-      <c r="AN5" t="inlineStr">
-        <is>
-          <t>45.67</t>
-        </is>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>2311</t>
-        </is>
-      </c>
-      <c r="AP5" t="inlineStr">
-        <is>
-          <t>禽畜飼料56.08%、蛋品22.89%、養殖13.65%、大宗原物料買賣7.11%、其他0.28% (2023年)</t>
-        </is>
-      </c>
-      <c r="AQ5" t="inlineStr">
-        <is>
-          <t>茂生農經-農業科技業-上櫃</t>
-        </is>
-      </c>
-      <c r="AR5" t="inlineStr">
-        <is>
-          <t>農業科技業右上</t>
-        </is>
-      </c>
-      <c r="AS5" t="inlineStr">
-        <is>
-          <t>34.98</t>
-        </is>
-      </c>
-      <c r="AT5" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU5" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="AV5" t="inlineStr">
-        <is>
-          <t>** 其他 - 農業科技業</t>
         </is>
       </c>
     </row>

--- a/Result/check1/2025-04-09.xlsx
+++ b/Result/check1/2025-04-09.xlsx
@@ -733,17 +733,17 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>7.59</t>
+          <t>15.99</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>50</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>39989</t>
+          <t>44302</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -753,12 +753,12 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-9.26</t>
+          <t>11.03</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>35.06</t>
+          <t>38.57</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>24.46</t>
+          <t>25.74</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>2517</t>
+          <t>2768</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -975,17 +975,17 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>5.26</t>
+          <t>3.54</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>22</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>11447</t>
+          <t>8103</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -995,12 +995,12 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>-0.96</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>3.79</t>
+          <t>3.86</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>17.09</t>
+          <t>16.78</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>12.33</t>
+          <t>12.48</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>230926</t>
+          <t>226794</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1217,17 +1217,17 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>24.74</t>
+          <t>24.41</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>42</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>7745</t>
+          <t>2236</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -1237,12 +1237,12 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>6.22</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1302,7 +1302,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>63.7</t>
+          <t>67.41</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>1231</t>
+          <t>1226</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">

--- a/Result/check1/2025-04-09.xlsx
+++ b/Result/check1/2025-04-09.xlsx
@@ -733,17 +733,17 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>15.99</t>
+          <t>23.58</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>48</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>44302</t>
+          <t>34050</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -753,12 +753,12 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>11.03</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>38.57</t>
+          <t>42.4</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>25.74</t>
+          <t>25.95</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>2768</t>
+          <t>3043</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -975,17 +975,17 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>3.54</t>
+          <t>5.16</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>59</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>8103</t>
+          <t>11791</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -995,12 +995,12 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>-0.96</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>3.79</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>16.78</t>
+          <t>17.07</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>12.48</t>
+          <t>12.38</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>226794</t>
+          <t>230683</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1217,17 +1217,17 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>24.41</t>
+          <t>20.19</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>2236</t>
+          <t>1342</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -1237,12 +1237,12 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>-6.21</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1302,7 +1302,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>67.41</t>
+          <t>66.84</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>1226</t>
+          <t>1161</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">

--- a/Result/check1/2025-04-09.xlsx
+++ b/Result/check1/2025-04-09.xlsx
@@ -713,7 +713,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>89.04</t>
+          <t>72.74</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -733,17 +733,17 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>23.58</t>
+          <t>17.38</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>210</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>34050</t>
+          <t>101264</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -753,12 +753,12 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>-13.54</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>2.28</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>42.4</t>
+          <t>39.22</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>25.95</t>
+          <t>26.0</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>3043</t>
+          <t>2815</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -975,17 +975,17 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>5.16</t>
+          <t>4.05</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>17</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>11791</t>
+          <t>5941</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>-0.53</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>3.79</t>
+          <t>3.84</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>17.07</t>
+          <t>16.87</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>12.38</t>
+          <t>12.33</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>230683</t>
+          <t>228009</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1217,17 +1217,17 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>20.19</t>
+          <t>18.93</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>1342</t>
+          <t>1162</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -1237,12 +1237,12 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>-6.21</t>
+          <t>-5.33</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1272,7 +1272,7 @@
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
@@ -1302,7 +1302,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>66.84</t>
+          <t>64.79</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>1161</t>
+          <t>1143</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">

--- a/Result/check1/2025-04-09.xlsx
+++ b/Result/check1/2025-04-09.xlsx
@@ -733,17 +733,17 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>17.38</t>
+          <t>24.85</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>151</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>101264</t>
+          <t>80371</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -758,7 +758,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-13.54</t>
+          <t>11.41</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>2.28</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>39.22</t>
+          <t>43.12</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>26.0</t>
+          <t>26.22</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>2815</t>
+          <t>3095</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -980,12 +980,12 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>10</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>5941</t>
+          <t>3703</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>-0.53</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -1115,7 +1115,7 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>12.33</t>
+          <t>12.36</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
@@ -1217,17 +1217,17 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>18.93</t>
+          <t>26.26</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>26</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>1162</t>
+          <t>1951</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -1242,7 +1242,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>-5.33</t>
+          <t>9.25</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1272,7 +1272,7 @@
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
@@ -1302,7 +1302,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>64.79</t>
+          <t>66.65</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>1143</t>
+          <t>1256</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">

--- a/Result/check1/2025-04-09.xlsx
+++ b/Result/check1/2025-04-09.xlsx
@@ -733,17 +733,17 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>24.85</t>
+          <t>15.57</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>238</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>80371</t>
+          <t>19287</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -753,12 +753,12 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>11.41</t>
+          <t>-9.81</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>2.34</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>43.12</t>
+          <t>38.38</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>26.22</t>
+          <t>25.36</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>3095</t>
+          <t>2754</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -975,17 +975,17 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>4.05</t>
+          <t>5.16</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>3703</t>
+          <t>6990</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -995,12 +995,12 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>3.84</t>
+          <t>3.79</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>16.87</t>
+          <t>17.07</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>12.36</t>
+          <t>12.24</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>228009</t>
+          <t>230683</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1217,17 +1217,17 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>26.26</t>
+          <t>13.18</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>9</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>1951</t>
+          <t>596</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -1237,12 +1237,12 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>9.25</t>
+          <t>-6.08</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1272,7 +1272,7 @@
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
@@ -1302,7 +1302,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2025-04-19</t>
+          <t>2025-04-23</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>66.65</t>
+          <t>64.28</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>1256</t>
+          <t>1067</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">

--- a/Result/check1/2025-04-09.xlsx
+++ b/Result/check1/2025-04-09.xlsx
@@ -733,17 +733,17 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>15.57</t>
+          <t>23.23</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>31</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>19287</t>
+          <t>8778</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -753,12 +753,12 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-9.81</t>
+          <t>5.35</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>2.34</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>38.38</t>
+          <t>42.21</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>25.36</t>
+          <t>26.45</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>2754</t>
+          <t>3029</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -975,17 +975,17 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>5.16</t>
+          <t>3.54</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>28</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>6990</t>
+          <t>6191</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -995,12 +995,12 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>-2.46</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>3.79</t>
+          <t>3.86</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>17.07</t>
+          <t>16.78</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>12.24</t>
+          <t>12.37</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>230683</t>
+          <t>226794</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1217,17 +1217,17 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>13.18</t>
+          <t>18.02</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>7</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>596</t>
+          <t>568</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -1237,12 +1237,12 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>-6.08</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1302,7 +1302,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>64.28</t>
+          <t>68.43</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>1067</t>
+          <t>1130</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">

--- a/Result/check1/2025-04-09.xlsx
+++ b/Result/check1/2025-04-09.xlsx
@@ -733,17 +733,17 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>23.23</t>
+          <t>31.74</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>73</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>8778</t>
+          <t>51498</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -753,12 +753,12 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>5.35</t>
+          <t>9.92</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>42.21</t>
+          <t>47.47</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>26.45</t>
+          <t>28.87</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>3029</t>
+          <t>3407</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -975,17 +975,17 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>3.54</t>
+          <t>3.43</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>27</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>6191</t>
+          <t>3537</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -995,12 +995,12 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>-2.46</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>16.78</t>
+          <t>16.76</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>12.37</t>
+          <t>12.58</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>226794</t>
+          <t>226551</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1217,17 +1217,17 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>18.02</t>
+          <t>25.51</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>10</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>568</t>
+          <t>1128</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -1242,7 +1242,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>4.36</t>
+          <t>3.07</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1272,7 +1272,7 @@
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
@@ -1302,7 +1302,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-29</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>68.43</t>
+          <t>75.14</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>1130</t>
+          <t>1244</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
